--- a/medicine/Psychotrope/Brasserie_Fort_Lapin/Brasserie_Fort_Lapin.xlsx
+++ b/medicine/Psychotrope/Brasserie_Fort_Lapin/Brasserie_Fort_Lapin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Fort Lapin (en néerlandais : Brouwerij Fort Lapin) est une brasserie artisanale belge située à Bruges en province de Flandre-Occidentale. Elle produit les bières Fort Lapin.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fin de l'année 2011, Kristof Vandenbussche, directeur d'une entreprise dans le domaine de la réfrigération, passionné de bières et autodidacte, décide de créer sa propre brasserie. Il acquiert et aménage des installations propres au brassage à Bruges. La première bière produite est la Fort Lapin 8 Tripel[1]. Kristof Vandenbussche donne le nom de Fort Lapin à sa brasserie ainsi qu'aux bières qu'il brasse en référence à la forteresse érigée en 1664 à la limite du centre historique de Bruges et à proximité de l'entreprise. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin de l'année 2011, Kristof Vandenbussche, directeur d'une entreprise dans le domaine de la réfrigération, passionné de bières et autodidacte, décide de créer sa propre brasserie. Il acquiert et aménage des installations propres au brassage à Bruges. La première bière produite est la Fort Lapin 8 Tripel. Kristof Vandenbussche donne le nom de Fort Lapin à sa brasserie ainsi qu'aux bières qu'il brasse en référence à la forteresse érigée en 1664 à la limite du centre historique de Bruges et à proximité de l'entreprise. 
 La brasserie se trouve au n° 32 de Koolkerkse Steenweg, au nord-est et à proximité du centre historique de Bruges et non loin du canal de Damme.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie produit trois bières :
 Fort Lapin 6 Dubbel, une bière blonde double titrant 6 % en volume d'alcool (étiquette rouge)
